--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R5c8c42079b084fe9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R9296d132babc4710"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R458caca7cdf548f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Ra7e8f177952b48c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc53bec42e6a14bc1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7d4827d34c514939"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb73fc3541784419d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5763ff65a63f4953"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R458caca7cdf548f6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Ra7e8f177952b48c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R13f3470df0d74763"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R918b5a95e3c04418"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7d4827d34c514939"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4a26fcd6b7cd443d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5763ff65a63f4953"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R12d175163fc647bf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R13f3470df0d74763"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R918b5a95e3c04418"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R96c7d02eff774bec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R46a469453b4d4367"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4a26fcd6b7cd443d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re2fca82979b8420c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R12d175163fc647bf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8bc0e84ab6604d70"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R96c7d02eff774bec"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R46a469453b4d4367"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3bbd23d52023490f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R430488cf3405426f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re2fca82979b8420c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7d147ab81c814cfd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8bc0e84ab6604d70"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R47a67ad5efc04983"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3bbd23d52023490f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R430488cf3405426f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R18ff031cf20b4df7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Rb6fb27d3cb1e4d0b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7d147ab81c814cfd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8aa2f83b95b14a3a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R47a67ad5efc04983"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf45d143d62724d6f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R18ff031cf20b4df7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Rb6fb27d3cb1e4d0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R830e16a9d1cf4135"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R7ad9ba5e4e2a45f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8aa2f83b95b14a3a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8434028eeb184e4f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf45d143d62724d6f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd53a240ede6c41e4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R830e16a9d1cf4135"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R7ad9ba5e4e2a45f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R64373e01d17e439f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R24657abc416244a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8434028eeb184e4f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd2277d445e54abd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd53a240ede6c41e4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9077b6c0fbaa4bc1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R64373e01d17e439f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R24657abc416244a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R783c2747b5a6490b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Re2ecee96a6214bae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd2277d445e54abd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R872e7f351d714f88"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9077b6c0fbaa4bc1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2df1e463741b4e93"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R783c2747b5a6490b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Re2ecee96a6214bae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R560b8eea89d44f42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R4dc00a4c097048c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R872e7f351d714f88"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8e7644b885cb4191"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2df1e463741b4e93"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e61f86590ac4b8b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R560b8eea89d44f42"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R4dc00a4c097048c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R279019f678114f53"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R24f1ef8674b64cae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8e7644b885cb4191"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f1add6ac8014147"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e61f86590ac4b8b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R916d4b5a39814f90"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R279019f678114f53"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R24f1ef8674b64cae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Raa609a69f8784070"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Red158dd729824d0d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f1add6ac8014147"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd499e32b356449f7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R916d4b5a39814f90"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8f9d841d5dc24b7d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Raa609a69f8784070"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Red158dd729824d0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0b209c02ccaa477f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R95fdefcecb934d23"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd499e32b356449f7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R05f00b5d7add4a6d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8f9d841d5dc24b7d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5e798e5b23d14a7f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/082_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0b209c02ccaa477f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R95fdefcecb934d23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rcc5f78d421634fed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R65a79f96a5314c5d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -162,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R05f00b5d7add4a6d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R816c79f03bae48f0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -241,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5e798e5b23d14a7f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8cccebab5f043a3"/>
 </x:worksheet>
 </file>